--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="177">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -892,6 +892,26 @@
   </si>
   <si>
     <t>1000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -990,8 +1010,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1032,7 +1054,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1043,6 +1065,7 @@
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1054,6 +1077,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2379,22 +2403,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2490,101 +2515,101 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -2592,276 +2617,321 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="187">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:10" ht="187">
+      <c r="A23" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I23" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="I22" s="7">
+      <c r="J23" s="7">
         <v>41136.784722222219</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="187">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:10" ht="187">
+      <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="10">
         <v>10</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I24" s="7">
         <v>41133.416666666664</v>
       </c>
-      <c r="I23" s="7">
+      <c r="J24" s="7">
         <v>41136.416666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="187">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:10" ht="187">
+      <c r="A25" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="10">
         <v>20</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I25" s="7">
         <v>41131.048611111109</v>
       </c>
-      <c r="I24" s="7">
+      <c r="J25" s="7">
         <v>41136.048611053244</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="187">
-      <c r="A25" s="14" t="s">
+    <row r="26" spans="1:10" ht="187">
+      <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="10">
         <v>0</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I26" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J26" s="7">
         <v>41136.784722222219</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="187">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:10" ht="187">
+      <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="10">
         <v>10</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="14" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I27" s="7">
         <v>41133.416666666664</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J27" s="7">
         <v>41136.416666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="187">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:10" ht="187">
+      <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C28" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="10">
         <v>20</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I28" s="7">
         <v>41131.048611111109</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J28" s="7">
         <v>41136.048611053244</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="187">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:10" ht="187">
+      <c r="A29" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C29" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="10">
         <v>0</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I29" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J29" s="7">
         <v>41136.784722222219</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="187">
-      <c r="A29" s="14" t="s">
+    <row r="30" spans="1:10" ht="187">
+      <c r="A30" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C30" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="10">
         <v>10</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I30" s="7">
         <v>41133.416666666664</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J30" s="7">
         <v>41136.416666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="187">
-      <c r="A30" s="14" t="s">
+    <row r="31" spans="1:10" ht="187">
+      <c r="A31" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="10">
         <v>20</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I31" s="7">
         <v>41131.048611111109</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J31" s="7">
         <v>41136.048611053244</v>
       </c>
     </row>
